--- a/data/trans_camb/P10_2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P10_2-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>-0,38</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 18,08</t>
+          <t>-19,34; 21,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 12,0</t>
+          <t>-22,45; 16,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 11,37</t>
+          <t>-15,24; 14,79</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,0%</t>
+          <t>-3,12%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>-0,55%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 30,04</t>
+          <t>-24,34; 35,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,9; 20,23</t>
+          <t>-29,8; 31,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 18,52</t>
+          <t>-20,44; 24,17</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>-0,02</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 10,94</t>
+          <t>-14,99; 13,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 7,38</t>
+          <t>-6,56; 6,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 6,32</t>
+          <t>-7,4; 8,46</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>-0,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>-0,01%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>-0,02%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 13,53</t>
+          <t>-16,79; 17,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 8,81</t>
+          <t>-7,16; 7,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 7,47</t>
+          <t>-8,2; 10,24</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,11</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 5,43</t>
+          <t>-11,29; 7,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 3,32</t>
+          <t>-2,48; 4,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 3,13</t>
+          <t>-4,5; 4,07</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,06%</t>
+          <t>-0,67%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,02%</t>
+          <t>0,11%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 5,81</t>
+          <t>-11,92; 8,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 3,48</t>
+          <t>-2,52; 4,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 3,32</t>
+          <t>-4,63; 4,35</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 6,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 4,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 4,05</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 7,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 4,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 4,77</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-8,63; 7,34</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-4,86; 4,4</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-4,67; 4,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-0,26%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-0,07%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-0,15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-9,72; 8,85</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-5,38; 5,03</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-5,23; 5,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P10_2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P10_2-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,98</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.094215305491919</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.5226230978959356</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.8758849591470552</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-19,34; 21,8</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-22,45; 16,44</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-15,24; 14,79</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-18.74573201095951</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-19.74071528371825</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-13.74290138341089</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,63%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,12%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,55%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>21.59482427593775</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>19.47077643117404</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>15.6808111425182</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-24,34; 35,9</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-29,8; 31,22</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-20,44; 24,17</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.01465280546267174</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.008217459444572384</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.0127354143385978</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.2349547750919901</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.2627158402299726</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1835138079721378</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-14,99; 13,35</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,56; 6,54</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-7,4; 8,46</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.3655975691043509</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.3694294306307314</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.2643399564424206</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,09%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,01%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,02%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.136941352808774</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.6166842076630541</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.9097980475662459</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-16,79; 17,13</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-7,16; 7,54</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-8,2; 10,24</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-12.14324515758686</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.791739236857186</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-5.731179332086151</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,64</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,66</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>14.65417690765331</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.932868217790713</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>9.329382709100098</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-11,29; 7,61</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,48; 4,0</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,5; 4,07</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.01354866017627206</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.006825703723037694</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.01042915266979411</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,67%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,68%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,11%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.1387764169635496</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.06181148302114421</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.06358248568065823</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-11,92; 8,29</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,52; 4,2</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-4,63; 4,35</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.1933880304807924</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.07995307968461376</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1150435750859866</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-0.3501736551093537</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.6304087806712322</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.1553188056364285</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-10.8616434264809</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-2.570681217302154</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-4.574177796796251</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>7.928700526154817</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>3.973624273201652</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>4.058777383121927</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.003690331365598599</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.006463759450332725</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.001611854442500861</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-0,22</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,13</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.1140632128751014</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.02588775045033693</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.04742905776797667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-8,63; 7,34</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-4,86; 4,4</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-4,67; 4,4</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.0871275081573266</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.04182133420962583</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.04304112912731584</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-0,26%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-0,07%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-0,15%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.6045780151806346</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.5581648205477574</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.5733764501667404</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-9,72; 8,85</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-5,38; 5,03</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-5,23; 5,05</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-7.208060416282319</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.045466616038719</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-3.722360516841574</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>8.119924521142325</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>4.78559097386427</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.11474450241765</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.006964735893893637</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.006223072812207627</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.006489867332010834</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.0822874855218494</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.04382695491281195</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.0411779703116919</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.09830566636095368</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.05585841878984333</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.05896613300786212</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
